--- a/medicine/Enfance/Claude_Izner/Claude_Izner.xlsx
+++ b/medicine/Enfance/Claude_Izner/Claude_Izner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Izner est le nom de plume commun de Liliane Korb (née à Paris le 6 janvier 1940 et morte le 9 mars 2022[1],[2],[3] à Montreuil[4]) et de sa sœur Laurence Korb (née à Paris le 10 avril 1951, également connue sous le nom de Laurence Lefèvre), romancières françaises, pour signer, depuis 2003, les Enquêtes de Victor Legris, romans policiers historiques situés à Paris la fin du XIXe siècle. Cette série est publiée dans la collection « Grands détectives » aux éditions 10/18.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Izner est le nom de plume commun de Liliane Korb (née à Paris le 6 janvier 1940 et morte le 9 mars 2022 à Montreuil) et de sa sœur Laurence Korb (née à Paris le 10 avril 1951, également connue sous le nom de Laurence Lefèvre), romancières françaises, pour signer, depuis 2003, les Enquêtes de Victor Legris, romans policiers historiques situés à Paris la fin du XIXe siècle. Cette série est publiée dans la collection « Grands détectives » aux éditions 10/18.
 Avant d'adopter ce pseudonyme, les sœurs Korb avaient déjà signé en commun plusieurs œuvres, allant du roman d'aventures pour les enfants au roman de suspense pour les adultes, en passant par la science-fiction.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographies succinctes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aînée des deux sœurs, Liliane Korb, est chef monteuse de cinéma, avant de devenir bouquiniste sur la rive droite de la Seine à Paris.
 La cadette, Laurence Korb, étudie l'archéologie jusqu'à l'obtention d'une licence, puis publie deux romans à la fin des années 1970, avant de devenir à son tour bouquiniste sur les bords de Seine.
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Claude Izner
-Les Enquêtes de Victor Legris
-Mystère rue des Saints-Pères, éditions 10/18, « Grands Détectives »  no 3505,  2003, prix Michel-Lebrun 2003.
+          <t>Romans signés Claude Izner</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Les Enquêtes de Victor Legris</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mystère rue des Saints-Pères, éditions 10/18, « Grands Détectives »  no 3505,  2003, prix Michel-Lebrun 2003.
 La Disparue du Père-Lachaise, éditions 10/18, « Grands Détectives »  no 3506, 2003
 Le Carrefour des Écrasés, éditions 10/18, « Grands Détectives »  no 3580, 2003
 Le Secret des Enfants-Rouges, éditions 10/18, « Grands Détectives »  no 3682, 2004
@@ -561,18 +583,128 @@
 Le Petit Homme de l'Opéra, éditions 10/18, « Grands Détectives »  no 4345, 2010
 Les Souliers bruns du quai Voltaire, éditions 10/18, « Grands Détectives »  no 4449, 2011
 Minuit, impasse du Cadran, éditions 10/18, « Grands Détectives »  no 4582, 2012
-Le Dragon du Trocadéro, éditions 10/18, « Grands Détectives »  no 4782, 2014
-Les aventures de Jeremy Nelson
-Le Pas du renard, éditions 10/18, coll. « Grands Détectives », no 5213, 2016
+Le Dragon du Trocadéro, éditions 10/18, « Grands Détectives »  no 4782, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Claude Izner</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les aventures de Jeremy Nelson</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Pas du renard, éditions 10/18, coll. « Grands Détectives », no 5213, 2016
 La Femme au serpent, éditions 10/18, coll. « Grands Détectives », no 5371, 2017
 La Poule aux  œufs d'or, éditions 10/18, coll. « Grands Détectives », no 5516, 2019
 Les Nids de l'hirondelle, éditions 10/18, coll. « Grands Détectives », 2021
-Qui a tué le Minotaure ?, éditions 10/18, coll. « Grands Détectives », 2023
-Autres romans
-Juillet 1942 - Les enfants aussi, Le Livre de Poche Jeunesse no 1627, 2012  Il s'agit de la réédition du livre Les Enfants aussi sorti en 1995 sous les noms de Laurence Lefèvre et Liliane Korb. Prix de la Société des Gens de Lettres en 1995, prix des Incorruptibles en 1996, prix de la ville de Pithiviers en 1999.
-Sang dessus dessous, éditions 10/18, « Grands Détectives »  no 4637, 2013 Réédition d'un roman paru en 1999 sous la double signature Liliane Korb et Laurence Lefèvre. (Voir ci-dessous).
-Romans signés Liliane Korb et Laurence Lefèvre
-Les notices bibliographiques de la Bibliothèque nationale de France placent tantôt Liliane, tantôt Laurence, comme premier auteur.
+Qui a tué le Minotaure ?, éditions 10/18, coll. « Grands Détectives », 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Claude Izner</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Juillet 1942 - Les enfants aussi, Le Livre de Poche Jeunesse no 1627, 2012  Il s'agit de la réédition du livre Les Enfants aussi sorti en 1995 sous les noms de Laurence Lefèvre et Liliane Korb. Prix de la Société des Gens de Lettres en 1995, prix des Incorruptibles en 1996, prix de la ville de Pithiviers en 1999.
+Sang dessus dessous, éditions 10/18, « Grands Détectives »  no 4637, 2013 Réédition d'un roman paru en 1999 sous la double signature Liliane Korb et Laurence Lefèvre. (Voir ci-dessous).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Liliane Korb et Laurence Lefèvre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les notices bibliographiques de la Bibliothèque nationale de France placent tantôt Liliane, tantôt Laurence, comme premier auteur.
 Mon père le poisson rouge, ill. de Gismonde Curiace. Paris : Flammarion, coll. « Castor-Poche » no 386. 250 p., 1992 Prix Versele 1994.
 L'Élixir de tante Ermolina, ill. de Solvej Crévelier. Paris : Flammarion, coll. « Castor-Poche - Junior » no 419. 273 p., 1993
 Bout d'ficelle ou Le secret du Chemin-Vert, ill. de Solvej Crévelier. Paris : Flammarion, coll. « Castor-Poche - Junior » no 450. 228 p., 1994
@@ -589,53 +721,201 @@
 Les Voyageurs de l'infini, ill. de Gess. Paris : Flammarion, coll. « Castor-Poche - Junior - Science-fiction » no 645. 110 p., 1998
 Sang dessus dessous. Roman policier, Paris : Viviane Hamy, coll. « Chemins nocturnes ». 222 p., 1999
 Un prince en baskets. Paris : Flammarion, coll. « Castor-Poche - Senior » no 734. 142 p., 2000
-Flash sur l'assassin. Paris : Flammarion, « Castor-Poche - Suspense - Senior » no 843. 114 p., 2001
-Romans signés Liliane Korb
-La Marion du Faouët, 1971, en collaboration avec Agnès Van Parÿs.
+Flash sur l'assassin. Paris : Flammarion, « Castor-Poche - Suspense - Senior » no 843. 114 p., 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans signés Liliane Korb</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Marion du Faouët, 1971, en collaboration avec Agnès Van Parÿs.
 Temps sans frontières, jeunesse, ill. de Yves Beaujard. Paris : Flammarion, 1989, coll. « Castor poche Junior » no 273, 246 p. Grand prix de la Science Fiction jeunesse en 1991.
-La Créature d'un autre monde, jeunesse, ill. de Solvej Crévelier. Paris : Père Castor-Flammarion, 1997, coll. « Les Trois loups, Faim de loup », 55 p.
-Ouvrages signés Laurence Korb
-Romans
-Paris-Lézarde, roman, Paris : Calmann-Lévy, 1977, 214 p.
-Les Passants du dimanche, roman, Paris : Calmann-Lévy, 1979, 222 p.
-Nouvelles
-« Lady Victoria », nouvelle publiée dans l'anthologie fantastique de Bernard Blanc : Que sont les fantômes devenus ?, Nouvelles Éditions Oswald, coll. « Fantastique / Science-fiction / Aventures », no 12, 1980.
-« Le Génie de la liberté », nouvelle parue dans la revue "Autrement" (numéro consacré à Paris), 1983.
-Romans signés Laurence Lefèvre
-Passage de la Main-d'Or, jeunesse, ill. de Gismonde Curiace, Paris : Flammarion, 1991, coll. « Castor poche » no 338, 232 p.
+La Créature d'un autre monde, jeunesse, ill. de Solvej Crévelier. Paris : Père Castor-Flammarion, 1997, coll. « Les Trois loups, Faim de loup », 55 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages signés Laurence Korb</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Paris-Lézarde, roman, Paris : Calmann-Lévy, 1977, 214 p.
+Les Passants du dimanche, roman, Paris : Calmann-Lévy, 1979, 222 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages signés Laurence Korb</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>« Lady Victoria », nouvelle publiée dans l'anthologie fantastique de Bernard Blanc : Que sont les fantômes devenus ?, Nouvelles Éditions Oswald, coll. « Fantastique / Science-fiction / Aventures », no 12, 1980.
+« Le Génie de la liberté », nouvelle parue dans la revue "Autrement" (numéro consacré à Paris), 1983.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans signés Laurence Lefèvre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Passage de la Main-d'Or, jeunesse, ill. de Gismonde Curiace, Paris : Flammarion, 1991, coll. « Castor poche » no 338, 232 p.
 Arrêtez-le, jeunesse, ill. de Marcelino Truong, Paris : Père Castor-Flammarion, 1997, coll. « Les Trois loups », 57 p.
 Week-end infernal, jeunesse, Paris : Hachette, 1997, 156 p.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Claude_Izner</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liliane Korb, monteuse pour le cinéma
-1960 : L'amour existe, court métrage réalisé par Maurice Pialat
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liliane Korb, monteuse pour le cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1960 : L'amour existe, court métrage réalisé par Maurice Pialat
 1961 : Les Cinq-cents Balles, court métrage réalisé par Melvin Van Peebles
 1961 : Cuba si, moyen métrage réalisé par Chris Marker
 1962 : Un cœur gros comme ça, long métrage réalisé par François Reichenbach
@@ -647,9 +927,43 @@
 1966 : La Permission (The Story of a Three-Day Pass), long métrage réalisé par Melvin Van Peebles
 1967 : Salut les copines, réalisé par Jean-Pierre Bastid
 1968 : Le 17e Parallèle, long métrage réalisé par Joris Ivens
-1971 : L'Apocalypse, long métrage réalisé par Jean-Claude Sée.
-Liliane Korb et Laurence Korb, réalisatrices
-1969 : Histoire d'un crime, (court métrage sur les expulsions et la spéculation immobilière à Belleville, Paris), en collaboration avec Laurence Korb, Marie-Geneviève Ripeau, Lionel Legros
+1971 : L'Apocalypse, long métrage réalisé par Jean-Claude Sée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Liliane Korb et Laurence Korb, réalisatrices</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1969 : Histoire d'un crime, (court métrage sur les expulsions et la spéculation immobilière à Belleville, Paris), en collaboration avec Laurence Korb, Marie-Geneviève Ripeau, Lionel Legros
 1970 : Un village au Nord Vietnam, (court métrage produit par la télévision scolaire), réalisé par Liliane Korb
 1970 : We Shall Remain Indians, (court métrage sur l'occupation de l'île d'Alcatraz), en collaboration avec Laurence Korb, Marie-Geneviève Ripeau, André Weinsfeld. Produit par Stanley Forman (Grande Bretagne)
 1975 : Les Esclops (Les Sabots), en collaboration avec Laurence Korb, Bernard Lefèvre, Claudine et Fabien Lesage, produit par Patrick Cazals, producteur de l'Animation du Haut Quercy.
@@ -658,61 +972,65 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Claude_Izner</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Michel-Lebrun de la Ville du Mans 2003 pour Mystère rue des saints-pères[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Claude_Izner</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Prix Michel-Lebrun de la Ville du Mans 2003 pour Mystère rue des saints-pères</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Claude_Izner</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Izner</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 1038-1039.</t>
         </is>
